--- a/data/trans_orig/P36BPD06_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>111872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86029</v>
+        <v>79993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140771</v>
+        <v>139791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2743340879551102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2109628312531753</v>
+        <v>0.196160751968104</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3452010762859419</v>
+        <v>0.3427996041255258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -762,19 +762,19 @@
         <v>95683</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76002</v>
+        <v>73914</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120980</v>
+        <v>117522</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2639443368683338</v>
+        <v>0.2639443368683339</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2096534026661895</v>
+        <v>0.2038952910256244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3337255412909478</v>
+        <v>0.3241868007795012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -783,19 +783,19 @@
         <v>207555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172372</v>
+        <v>174322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>243150</v>
+        <v>244994</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2694445844442817</v>
+        <v>0.2694445844442816</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2237708373282176</v>
+        <v>0.2263020004978765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3156542693794876</v>
+        <v>0.3180477975722774</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>295921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267022</v>
+        <v>268002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>321764</v>
+        <v>327800</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7256659120448899</v>
+        <v>0.7256659120448898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6547989237140581</v>
+        <v>0.6572003958744741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7890371687468246</v>
+        <v>0.8038392480318962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>150</v>
@@ -833,19 +833,19 @@
         <v>266829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241532</v>
+        <v>244990</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286510</v>
+        <v>288598</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.736055663131666</v>
+        <v>0.7360556631316661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6662744587090516</v>
+        <v>0.6758131992204983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7903465973338105</v>
+        <v>0.7961047089743755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -854,19 +854,19 @@
         <v>562750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>527155</v>
+        <v>525311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>597933</v>
+        <v>595983</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7305554155557185</v>
+        <v>0.7305554155557183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6843457306205124</v>
+        <v>0.6819522024277227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7762291626717824</v>
+        <v>0.7736979995021235</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>119523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96825</v>
+        <v>96455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144481</v>
+        <v>144498</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2513472122448381</v>
+        <v>0.251347212244838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2036136582542371</v>
+        <v>0.2028353873473489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3038309422220182</v>
+        <v>0.3038672087106568</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -979,19 +979,19 @@
         <v>127965</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107836</v>
+        <v>108658</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147535</v>
+        <v>148765</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2553766924233981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2152051121847544</v>
+        <v>0.2168469381449181</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2944318406676716</v>
+        <v>0.2968862712222601</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>195</v>
@@ -1000,19 +1000,19 @@
         <v>247488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>218064</v>
+        <v>213877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>281619</v>
+        <v>278571</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2534146664430913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2232857384918551</v>
+        <v>0.218998372966608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2883628502262369</v>
+        <v>0.2852421667583389</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>356008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>331050</v>
+        <v>331033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>378706</v>
+        <v>379076</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7486527877551619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6961690577779819</v>
+        <v>0.696132791289343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7963863417457629</v>
+        <v>0.7971646126526513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -1050,19 +1050,19 @@
         <v>373118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353548</v>
+        <v>352318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>393247</v>
+        <v>392425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7446233075766018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7055681593323279</v>
+        <v>0.7031137287777398</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7847948878152453</v>
+        <v>0.7831530618550818</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>566</v>
@@ -1071,19 +1071,19 @@
         <v>729126</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>694995</v>
+        <v>698043</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>758550</v>
+        <v>762737</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7465853335569087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7116371497737631</v>
+        <v>0.7147578332416611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7767142615081449</v>
+        <v>0.7810016270333925</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>152574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129918</v>
+        <v>130467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177156</v>
+        <v>176837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2472314747037199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2105197905250302</v>
+        <v>0.2114094319483684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2870645435774442</v>
+        <v>0.2865471490467135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>201</v>
@@ -1196,19 +1196,19 @@
         <v>155583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137914</v>
+        <v>137671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175516</v>
+        <v>173375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2506510542121775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2221862678459336</v>
+        <v>0.2217939265960968</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2827640378103422</v>
+        <v>0.2793146793526288</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -1217,19 +1217,19 @@
         <v>308157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>281911</v>
+        <v>281689</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>338440</v>
+        <v>339408</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.248946214429232</v>
+        <v>0.2489462144292321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2277434425848879</v>
+        <v>0.2275642159082898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2734110898533516</v>
+        <v>0.2741928885909947</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>464556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439974</v>
+        <v>440293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>487212</v>
+        <v>486663</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7527685252962801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7129354564225558</v>
+        <v>0.7134528509532863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7894802094749702</v>
+        <v>0.7885905680516317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>643</v>
@@ -1267,19 +1267,19 @@
         <v>465131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445198</v>
+        <v>447339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>482800</v>
+        <v>483043</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7493489457878225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7172359621896575</v>
+        <v>0.7206853206473712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7778137321540662</v>
+        <v>0.7782060734039034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1054</v>
@@ -1288,19 +1288,19 @@
         <v>929687</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>899404</v>
+        <v>898436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>955933</v>
+        <v>956155</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7510537855707679</v>
+        <v>0.7510537855707681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7265889101466485</v>
+        <v>0.725807111409005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7722565574151121</v>
+        <v>0.7724357840917103</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>155664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133676</v>
+        <v>134567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181730</v>
+        <v>177564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2228741547470412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1913933939487707</v>
+        <v>0.1926679083008882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2601944629220931</v>
+        <v>0.2542296846506541</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>247</v>
@@ -1413,19 +1413,19 @@
         <v>168671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150849</v>
+        <v>150261</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>188445</v>
+        <v>187467</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2293704226801431</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2051360945463243</v>
+        <v>0.204335342625876</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2562614105795228</v>
+        <v>0.2549319119004853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>390</v>
@@ -1434,19 +1434,19 @@
         <v>324334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295259</v>
+        <v>297360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353671</v>
+        <v>357246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2262059389434896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.205927391809379</v>
+        <v>0.2073931790128083</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2466666091881781</v>
+        <v>0.2491599466941501</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>542774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>516708</v>
+        <v>520874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>564762</v>
+        <v>563871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7771258452529589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7398055370779067</v>
+        <v>0.7457703153493457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8086066060512291</v>
+        <v>0.8073320916991119</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>891</v>
@@ -1484,19 +1484,19 @@
         <v>566692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>546918</v>
+        <v>547896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584514</v>
+        <v>585102</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7706295773198569</v>
+        <v>0.7706295773198567</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7437385894204772</v>
+        <v>0.7450680880995146</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7948639054536759</v>
+        <v>0.795664657374124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1411</v>
@@ -1505,19 +1505,19 @@
         <v>1109466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1080129</v>
+        <v>1076554</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1138541</v>
+        <v>1136440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7737940610565104</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7533333908118218</v>
+        <v>0.7508400533058499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7940726081906213</v>
+        <v>0.7926068209871917</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>138091</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118897</v>
+        <v>121202</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>159456</v>
+        <v>158740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2285143977045562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1967516209001366</v>
+        <v>0.2005658446245991</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2638691308153308</v>
+        <v>0.2626836866999726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -1630,19 +1630,19 @@
         <v>147267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131818</v>
+        <v>130805</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165609</v>
+        <v>163661</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.242391210046676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2169637234188054</v>
+        <v>0.2152959097699548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2725804973548246</v>
+        <v>0.2693741603503982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>379</v>
@@ -1651,19 +1651,19 @@
         <v>285358</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259945</v>
+        <v>259826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>312408</v>
+        <v>311114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2354714666022323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2145010662887317</v>
+        <v>0.2144023446967325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2577919478731426</v>
+        <v>0.256724695226322</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>466209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>444844</v>
+        <v>445560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485403</v>
+        <v>483098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7714856022954437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7361308691846695</v>
+        <v>0.7373163133000273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8032483790998636</v>
+        <v>0.799434155375401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>772</v>
@@ -1701,19 +1701,19 @@
         <v>460293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>441951</v>
+        <v>443899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475742</v>
+        <v>476755</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7576087899533238</v>
+        <v>0.7576087899533239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7274195026451754</v>
+        <v>0.7306258396496019</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7830362765811943</v>
+        <v>0.7847040902300449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1279</v>
@@ -1722,19 +1722,19 @@
         <v>926502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>899452</v>
+        <v>900746</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>951915</v>
+        <v>952034</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7645285333977676</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7422080521268573</v>
+        <v>0.743275304773678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7854989337112681</v>
+        <v>0.7855976553032674</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>95127</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81446</v>
+        <v>81463</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109642</v>
+        <v>110021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2355520575465921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2016745742100896</v>
+        <v>0.2017169163828431</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2714929798044832</v>
+        <v>0.2724325611901449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -1847,19 +1847,19 @@
         <v>110837</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97519</v>
+        <v>97702</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124195</v>
+        <v>123478</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2527096167412038</v>
+        <v>0.2527096167412037</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2223455184076554</v>
+        <v>0.2227611210038116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.283165802238984</v>
+        <v>0.2815308793189424</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>326</v>
@@ -1868,19 +1868,19 @@
         <v>205964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>186190</v>
+        <v>187148</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>225953</v>
+        <v>225576</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2444846672769225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2210121982688797</v>
+        <v>0.2221495121052436</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2682117512891065</v>
+        <v>0.2677649864743535</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>308721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294206</v>
+        <v>293827</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>322402</v>
+        <v>322385</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7644479424534079</v>
+        <v>0.7644479424534081</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7285070201955166</v>
+        <v>0.7275674388098553</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7983254257899104</v>
+        <v>0.7982830836171569</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>633</v>
@@ -1918,19 +1918,19 @@
         <v>327757</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>314399</v>
+        <v>315116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341075</v>
+        <v>340892</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7472903832587963</v>
+        <v>0.7472903832587962</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.716834197761016</v>
+        <v>0.7184691206810575</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7776544815923445</v>
+        <v>0.7772388789961884</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1066</v>
@@ -1939,19 +1939,19 @@
         <v>636478</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>616489</v>
+        <v>616866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>656252</v>
+        <v>655294</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7555153327230777</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7317882487108937</v>
+        <v>0.7322350135256467</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7789878017311205</v>
+        <v>0.7778504878947565</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>72341</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60503</v>
+        <v>60575</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85206</v>
+        <v>86648</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2335255377343508</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1953101716287673</v>
+        <v>0.1955423796048166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2750527362384996</v>
+        <v>0.279708313547419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -2064,19 +2064,19 @@
         <v>103476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89451</v>
+        <v>90049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119094</v>
+        <v>117557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2234476801804894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1931605572191052</v>
+        <v>0.1944521470589313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2571734938190059</v>
+        <v>0.2538537902111437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>273</v>
@@ -2085,19 +2085,19 @@
         <v>175817</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158042</v>
+        <v>158397</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>194363</v>
+        <v>195518</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2274870569067953</v>
+        <v>0.2274870569067952</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.204487727462123</v>
+        <v>0.2049466562436728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2514826155572167</v>
+        <v>0.2529776475244534</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>237438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224573</v>
+        <v>223131</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>249276</v>
+        <v>249204</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.766474462265649</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7249472637615006</v>
+        <v>0.7202916864525809</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8046898283712326</v>
+        <v>0.8044576203951835</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>707</v>
@@ -2135,19 +2135,19 @@
         <v>359614</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>343996</v>
+        <v>345533</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>373639</v>
+        <v>373041</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7765523198195107</v>
+        <v>0.7765523198195106</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.742826506180994</v>
+        <v>0.7461462097888562</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8068394427808947</v>
+        <v>0.805547852941069</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1062</v>
@@ -2156,19 +2156,19 @@
         <v>597051</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>578505</v>
+        <v>577350</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>614826</v>
+        <v>614471</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.772512943093205</v>
+        <v>0.7725129430932047</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7485173844427833</v>
+        <v>0.7470223524755462</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.795512272537877</v>
+        <v>0.7950533437563266</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>845192</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>791137</v>
+        <v>794244</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>900577</v>
+        <v>904423</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2403286742772528</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2249582832017638</v>
+        <v>0.2258416467549911</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2560772528150941</v>
+        <v>0.2571708898820211</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1214</v>
@@ -2281,19 +2281,19 @@
         <v>909481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>864091</v>
+        <v>861340</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>958980</v>
+        <v>957761</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2438997214752833</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.231727191855568</v>
+        <v>0.2309893842521634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2571740754709081</v>
+        <v>0.2568470258195271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2002</v>
@@ -2302,19 +2302,19 @@
         <v>1754674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1683045</v>
+        <v>1676117</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1827717</v>
+        <v>1820080</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2421664636400184</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2322807748404576</v>
+        <v>0.2313246943039069</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2522472981705892</v>
+        <v>0.2511933908100955</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2671626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2616241</v>
+        <v>2612395</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2725681</v>
+        <v>2722574</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7596713257227471</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7439227471849051</v>
+        <v>0.7428291101179788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7750417167982361</v>
+        <v>0.7741583532450087</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4139</v>
@@ -2352,19 +2352,19 @@
         <v>2819434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2769935</v>
+        <v>2771154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2864824</v>
+        <v>2867575</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7561002785247167</v>
+        <v>0.7561002785247166</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.742825924529092</v>
+        <v>0.743152974180473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7682728081444322</v>
+        <v>0.7690106157478367</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6711</v>
@@ -2373,19 +2373,19 @@
         <v>5491060</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5418017</v>
+        <v>5425654</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5562689</v>
+        <v>5569617</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7578335363599815</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7477527018294109</v>
+        <v>0.7488066091899045</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7677192251595427</v>
+        <v>0.768675305696093</v>
       </c>
     </row>
     <row r="27">
